--- a/sample.xlsx
+++ b/sample.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="80" customWidth="1" min="3" max="3"/>
     <col width="125" customWidth="1" min="4" max="4"/>
-    <col width="37" customWidth="1" min="5" max="5"/>
+    <col width="55" customWidth="1" min="5" max="5"/>
     <col width="68" customWidth="1" min="6" max="6"/>
-    <col width="57" customWidth="1" min="7" max="7"/>
+    <col width="77" customWidth="1" min="7" max="7"/>
     <col width="69" customWidth="1" min="8" max="8"/>
     <col width="65" customWidth="1" min="9" max="9"/>
     <col width="54" customWidth="1" min="10" max="10"/>
-    <col width="49" customWidth="1" min="11" max="11"/>
+    <col width="53" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1043,6 +1043,413 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>nCino</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>41102</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>銀行業界のレガシーシステムによる効率の悪さと手続きの遅さ
+顧客体験の低下と満足度の低さ
+規制遵守の困難さ</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>クラウドベースの一元化された銀行オペレーティングシステム
+顧客対応を改善するためのデジタル化
+リアルタイムでの監視とリポーティングを可能にするダッシュボード</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>プラットフォームへの新規登録銀行数
+銀行による取引量
+顧客満足度</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>銀行のビジネスプロセスをデジタル化し、効率化する一元化されたシステム</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>既存の銀行のレガシーシステムとは異なり、最初からクラウドベースで開発されたプラットフォーム
+Salesforceのエコシステム内に組み込まれたサービス</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>インターネット（ウェブサイト、ブログ、ソーシャルメディア）
+銀行との直接的なパートナーシップ</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>レガシーシステムからの移行を検討している銀行
+顧客体験の改善を求める銀行</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>エンジニアの給与
+クラウドインフラストラクチャの維持費
+マーケティングと営業のコスト</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>ソフトウェアのサブスクリプション料
+サポートとカスタマイズサービスの料金</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NANOX</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>X線装置の高コスト
+アクセス困難な地域での医療診断の限定性
+診断結果の待ち時間</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>低コストで小型のX線機器 (Nanox.ARC)
+クラウドベースの診断ネットワーク (Nanox.Cloud)
+AIを使用した即時の診断サポート</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nanox.ARCの出荷数
+Nanox.Cloudへの接続数
+AIによる診断処理量</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>低コストでアクセス可能なX線診断技術の提供</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>革新的な低コストX線装置の開発
+クラウドベースの診断プラットフォームを組み合わせた統合ソリューション</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>医療機関へのダイレクトセールス
+医療関連のイベントやカンファレンス
+オンライン（ウェブサイト、ソーシャルメディア）</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>開発途上国の医療機関
+地方のクリニックや小規模な病院
+大規模な医療機関や病院</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>研究開発費用
+生産コスト
+マーケティングと営業のコスト</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Nanox.ARCの販売
+Nanox.Cloudのサービス利用料
+AI診断サポートの利用料</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Snowflake</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>41091</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>既存のデータウェアハウスのスケーリング問題
+データの一貫性とセキュリティの問題
+データの処理速度の遅さ</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>クラウドネイティブのデータウェアハウス
+オンデマンドでスケーリング可能なストレージとコンピューティングリソース
+データの一元管理と高速なクエリ処理</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>アクティブユーザー数
+使用されるストレージとコンピューティングリソースの量
+データウェアハウスへのクエリ数</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>クラウド上で高速かつスケーラブルなデータウェアハウスの提供</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>データウェアハウスのスケーリングとクエリ性能を両立したクラウドネイティブ設計
+オンデマンドでのスケーリングと料金体系</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ウェブサイト
+クラウドマーケットプレイス
+ダイレクトセールスとパートナーシップ</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>大企業
+テックスタートアップ
+データ分析を必要とする各種業界</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>プラットフォームの開発とメンテナンス
+クラウドサービスの利用費用
+マーケティングとセールスのコスト</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>利用量に応じた課金
+長期利用向けの料金プラン
+データ移行やコンサルティングサービスの費用</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>C3.AI</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>39814</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AIとビッグデータの活用が困難
+既存のエンタープライズシステムとの統合が難しい
+スケーラブルなAIソリューションが不足</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>AIとビッグデータ向けの統合プラットフォーム
+エンタープライズシステムとの簡単な統合
+高度にスケーラブルなAIアプリケーション</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>プラットフォーム上で動作するAIアプリケーション数
+データ処理量
+顧客満足度とリピート率</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>AIを活用したビジネス変革を可能にするプラットフォーム</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>一貫したAIソリューションの提供
+既存システムとの高度な統合能力</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ウェブサイト
+ダイレクトセールス
+パートナーシップ</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>大企業
+エンタープライズ向けソフトウェア開発者</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>プラットフォームの開発とメンテナンス
+営業とマーケティングのコスト
+顧客サポートとトレーニングのコスト</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>プラットフォームの利用料
+ソリューション提供に伴うコンサルティング料
+カスタマイズと開発支援の費用</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Unity</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>38201</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ゲーム開発の高度なスキルとリソース要件
+複数のプラットフォームへの移植が困難</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ゲーム開発を簡易化する統合開発環境の提供
+ワンクリックで複数のプラットフォームに対応</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>使用者数
+開発されたゲーム数
+利用時間</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>ゲーム開発を誰でも簡単に</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>初心者からプロまで使えるユーザーフレンドリーなインターフェース
+広範囲のプラットフォームサポート</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ウェブサイト
+教育機関とのパートナーシップ</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ゲーム開発者
+教育機関</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>開発とメンテナンスのコスト
+マーケティングコスト</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>プロ版のライセンス販売
+サービスのサブスクリプション料金
+Unity Asset Storeからの収益</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>38961</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>自分のアイデアを形にできるプラットフォームの不足
+安全な子供向けオンラインゲーム環境の不足</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ユーザーが自分自身でゲームを作成・共有できるプラットフォーム
+強力な規範とモデレーションシステムによる安全な環境</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>登録ユーザー数
+作成されたゲーム数
+平均利用時間</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>自分自身でゲームを作り、他の人と共有する体験</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>独自のユーザー生成コンテンツと社会体
+高いブランド認知度と子供向け安全性</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ウェブサイト
+モバイルアプリ</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>子供と若者
+ゲーム開発を学びたい人々</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>プラットフォームの開発とメンテナンス
+モデレーションと規範の強化
+マーケティングコスト</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>仮想通貨"Robux"の販売
+サブスクリプション料金
+アドバタイジング収益</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1450,6 +1450,136 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tesla</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>37803</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>石油依存の高い車両業界
+環境への悪影響</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>高性能で環境に優しい電気自動車の製造
+電池技術の革新</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>販売台数
+ブランド認知度
+収益</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>高速で持続可能なエネルギー解決策</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ブランド認知度とイノベーション
+先進的なバッテリーテクノロジー</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>直接販売店
+オンライン販売</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>環境に配慮した消費者
+プレミアムセグメントの自動車購入者</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>製造コスト
+研究開発
+営業及び管理費用</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>車両販売
+サービスと付属品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SpaceX</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>37329</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>高コストの宇宙探査
+再利用不可能なロケット</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>再利用可能なロケットの開発
+低コストの宇宙旅行の実現</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>打ち上げ数
+再利用ロケットの成功回数
+契約数</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>人類が宇宙を探査し、他の惑星に住むことを可能にする</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>再利用可能なロケット技術
+強力なブランドとイノベーション</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>政府との契約
+商業打ち上げ契約</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>政府機関
+衛星会社</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ロケットの開発と製造
+打ち上げ費用
+研究開発</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>打ち上げ契約
+宇宙旅行の収入</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Use cases" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Projects" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
